--- a/res/page/车场运营/车场管理/PersonalManagePage.xlsx
+++ b/res/page/车场运营/车场管理/PersonalManagePage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10095"/>
+    <workbookView windowWidth="21600" windowHeight="9765"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
   <si>
     <t>别名</t>
   </si>
@@ -36,10 +36,10 @@
     <t>//nav[@class='menu-box']//a[contains(text(), "车场运营")]</t>
   </si>
   <si>
-    <t>人员管理</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]//ul[@role='menubar']//span[text()='人员管理']/..</t>
+    <t>收费员帐号</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]//ul[@role='menubar']//span[text()='收费员帐号']/..</t>
   </si>
   <si>
     <t>搜索框</t>
@@ -149,10 +149,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -170,6 +170,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -178,6 +194,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -185,46 +215,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,21 +269,14 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -278,6 +286,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -286,29 +301,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,37 +329,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,18 +413,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -407,12 +443,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -425,31 +485,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,42 +510,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,17 +538,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,6 +572,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -588,24 +597,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,6 +618,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -643,10 +643,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -655,133 +655,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1148,8 +1148,8 @@
   <sheetPr/>
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/res/page/车场运营/车场管理/PersonalManagePage.xlsx
+++ b/res/page/车场运营/车场管理/PersonalManagePage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765"/>
+    <workbookView windowWidth="21000" windowHeight="8895"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
     <t>用户昵称</t>
   </si>
   <si>
-    <t>//*[@id="app"]//label[contains(text(),'用户昵称')]/following-sibling::*[1]//input</t>
+    <t>//div[@class="modal-container"]//label[contains(text(),'用户名')]/following-sibling::*[1]//input</t>
   </si>
   <si>
     <t>帐号类型</t>
@@ -150,8 +150,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -170,6 +170,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -179,6 +186,89 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -187,128 +277,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,187 +329,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,15 +562,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -582,6 +573,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,17 +635,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -643,10 +643,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -655,133 +655,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1148,8 +1148,8 @@
   <sheetPr/>
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/res/page/车场运营/车场管理/PersonalManagePage.xlsx
+++ b/res/page/车场运营/车场管理/PersonalManagePage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8895"/>
+    <workbookView windowWidth="21600" windowHeight="9765"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,7 +99,7 @@
     <t>绑定停车场</t>
   </si>
   <si>
-    <t>//*[@id="miniprogramUserManageTable"]//div[@class='el-table__fixed-right']//button[@title='绑定停车场']</t>
+    <t>//div[@class='el-table__fixed-right']//button[@title='绑定停车场']</t>
   </si>
   <si>
     <t>选中权限</t>
@@ -111,31 +111,31 @@
     <t>编辑</t>
   </si>
   <si>
-    <t>//*[@id="miniprogramUserManageTable"]//div[@class='el-table__fixed-right']//button[@title='编辑']</t>
+    <t>//div[@class='el-table__fixed-right']//button[@title='编辑']</t>
   </si>
   <si>
     <t>绑定微信</t>
   </si>
   <si>
-    <t>//*[@id="miniprogramUserManageTable"]//div[@class='el-table__fixed-right']//button[@title='绑定微信']</t>
+    <t>//div[@class='el-table__fixed-right']//button[@title='绑定微信']</t>
   </si>
   <si>
     <t>冻结</t>
   </si>
   <si>
-    <t>//*[@id="miniprogramUserManageTable"]//div[@class='el-table__fixed-right']//button[@title='冻结']</t>
+    <t>//div[@class='el-table__fixed-right']//button[@title='冻结']</t>
   </si>
   <si>
     <t>启用</t>
   </si>
   <si>
-    <t>//*[@id="miniprogramUserManageTable"]//div[@class='el-table__fixed-right']//button[@title='启用']</t>
+    <t>//div[@class='el-table__fixed-right']//button[@title='启用']</t>
   </si>
   <si>
     <t>删除</t>
   </si>
   <si>
-    <t>//*[@id="miniprogramUserManageTable"]//div[@class='el-table__fixed-right']//button[@title='删除']</t>
+    <t>//div[@class='el-table__fixed-right']//button[@title='删除']</t>
   </si>
   <si>
     <t>操作成功-提示</t>
@@ -149,10 +149,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -171,7 +171,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,6 +255,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -193,120 +270,43 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -329,187 +329,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,6 +538,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -548,16 +563,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,31 +613,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,10 +643,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -655,133 +655,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1148,8 +1148,8 @@
   <sheetPr/>
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/res/page/车场运营/车场管理/PersonalManagePage.xlsx
+++ b/res/page/车场运营/车场管理/PersonalManagePage.xlsx
@@ -93,7 +93,7 @@
     <t>确认-提示</t>
   </si>
   <si>
-    <t>//*[@id="app"]//button[contains(text(),'确认')]</t>
+    <t>//*[@id="app"]//button[contains(text(),'确认')or contains(text(),'确 认')]</t>
   </si>
   <si>
     <t>绑定停车场</t>
@@ -171,15 +171,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,47 +199,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,11 +236,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -285,22 +274,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,7 +300,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,6 +329,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -359,19 +491,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,133 +503,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,17 +538,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,16 +557,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,6 +588,45 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -602,39 +635,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -643,10 +643,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -655,133 +655,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1149,7 +1149,7 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/res/page/车场运营/车场管理/PersonalManagePage.xlsx
+++ b/res/page/车场运营/车场管理/PersonalManagePage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765"/>
+    <workbookView windowWidth="21600" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
     <t>确认-提示</t>
   </si>
   <si>
-    <t>//*[@id="app"]//button[contains(text(),'确认')]</t>
+    <t>//*[@id="app"]//button[contains(text(),'确认') or contains(text(),'确 认')]</t>
   </si>
   <si>
     <t>绑定停车场</t>
@@ -149,10 +149,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -185,6 +185,127 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -192,127 +313,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -329,49 +329,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,6 +479,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -395,121 +503,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,45 +538,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -592,22 +553,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,6 +591,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -643,10 +643,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -655,133 +655,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1149,7 +1149,7 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
